--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>44404</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44127</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>44572</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44349</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>45097</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43807</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44504</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43410</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43662</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>43775</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44875</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>45001</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45097</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43502</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43529</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44020</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44067</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44277</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44608</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44756</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44973</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45075</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45116</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43361</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43362</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>43377</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43410</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43423</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43430</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43432</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43451</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>43461</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>43462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43474</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43480</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43485</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43488</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43493</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43496</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43503</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43511</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43527</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43536</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43537</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43538</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43543</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43543</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43548</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43553</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43553</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43558</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43559</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43562</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43563</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43567</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43584</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43585</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43591</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43602</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43613</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43614</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43614</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43621</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43628</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43635</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43639</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43640</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43648</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43668</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43670</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43671</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43677</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43686</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43707</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43719</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43724</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43727</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43728</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43739</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43739</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43752</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43769</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43773</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43774</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43775</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43777</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43777</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>43783</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>43783</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43784</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43788</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43791</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43794</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43794</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43801</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43808</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43812</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43818</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>43822</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>43832</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43833</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>43837</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>43839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>43841</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43843</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43847</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43851</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43853</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43865</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43868</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43882</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43885</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43888</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43903</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43908</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43915</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43915</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43916</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43922</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43922</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43923</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43923</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43924</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43930</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43936</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43957</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43959</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43978</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43985</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43987</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43990</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43994</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44005</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44006</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>44007</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>44018</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44021</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44032</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44032</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44054</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44054</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44061</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44061</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>44074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>44074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>44076</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44076</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44081</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44085</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44110</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44126</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>44127</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>44132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44132</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44141</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44145</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44146</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44156</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44158</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44161</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44172</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44182</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>44191</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44191</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>44193</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>44193</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44214</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>44225</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>44232</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44235</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44242</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44243</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44243</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44244</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44256</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44260</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44260</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44264</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44277</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44284</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44285</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44285</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44301</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44305</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44305</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44308</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44321</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44321</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44323</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44323</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44334</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44340</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44340</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44348</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44348</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44363</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>44365</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44368</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44368</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44369</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44369</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44375</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>44378</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>44383</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44384</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44403</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44403</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44405</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44410</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44414</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44418</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44419</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>44421</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>44424</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>44432</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44433</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44448</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>44448</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>44449</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44460</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>44473</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>44482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>44483</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>44483</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>44487</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44487</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44488</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44495</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44502</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44502</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44504</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44504</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44505</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44505</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44512</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44515</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44515</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44517</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44517</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44522</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44525</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44525</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44528</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44529</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44530</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44538</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44545</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>44545</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44546</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44546</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         <v>44547</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>44550</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22311,7 +22311,7 @@
         <v>44550</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44551</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22425,7 +22425,7 @@
         <v>44551</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         <v>44552</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>44552</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22596,7 +22596,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         <v>44567</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22710,7 +22710,7 @@
         <v>44571</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44572</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44575</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44575</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44582</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44582</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44586</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44587</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44587</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44599</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44602</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44602</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>44604</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44620</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44623</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44624</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44624</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44630</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44637</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44650</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44664</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44671</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44673</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44676</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44683</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44694</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44699</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>44704</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>44713</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>44713</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>44715</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>44727</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44727</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>44729</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44732</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44746</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44746</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44747</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44749</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44749</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44750</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44750</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44756</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44756</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44760</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>44768</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>44774</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44774</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44791</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44795</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44818</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>44819</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26606,7 +26606,7 @@
         <v>44819</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26720,7 +26720,7 @@
         <v>44831</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44831</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>44837</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         <v>44841</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>44844</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>44845</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44847</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44855</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27300,7 +27300,7 @@
         <v>44858</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27357,7 +27357,7 @@
         <v>44860</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27414,7 +27414,7 @@
         <v>44861</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27471,7 +27471,7 @@
         <v>44861</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27585,7 +27585,7 @@
         <v>44866</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27642,7 +27642,7 @@
         <v>44866</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27699,7 +27699,7 @@
         <v>44871</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>44874</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44874</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>44879</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>44889</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28004,7 +28004,7 @@
         <v>44889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>44890</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>44894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>44910</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>44912</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>44914</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>44917</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44917</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44918</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>44937</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28755,7 +28755,7 @@
         <v>44937</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>44939</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28869,7 +28869,7 @@
         <v>44943</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         <v>44943</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44957</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29040,7 +29040,7 @@
         <v>44957</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29097,7 +29097,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29154,7 +29154,7 @@
         <v>44964</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29211,7 +29211,7 @@
         <v>44964</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29268,7 +29268,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29325,7 +29325,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29382,7 +29382,7 @@
         <v>44965</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44967</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29501,7 +29501,7 @@
         <v>44970</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>44970</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44971</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44971</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44972</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29843,7 +29843,7 @@
         <v>44972</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29900,7 +29900,7 @@
         <v>44973</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44979</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44992</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44995</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44995</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>45002</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>45005</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>45007</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>45008</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>45013</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30931,7 +30931,7 @@
         <v>45014</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30988,7 +30988,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>45020</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>45024</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>45027</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>45028</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31697,7 +31697,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31759,7 +31759,7 @@
         <v>45033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>45034</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>45040</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>45042</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>45044</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>45055</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32396,7 +32396,7 @@
         <v>45056</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>45057</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>45058</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>45065</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>45070</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>45072</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>45075</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>45077</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         <v>45079</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>45082</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>45083</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45084</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45085</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45086</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>45090</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>45092</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34089,7 +34089,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45093</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>45094</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34332,7 +34332,7 @@
         <v>45095</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         <v>45096</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34451,7 +34451,7 @@
         <v>45097</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34508,7 +34508,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34565,7 +34565,7 @@
         <v>45107</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34736,7 +34736,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34793,7 +34793,7 @@
         <v>45114</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34850,7 +34850,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34907,7 +34907,7 @@
         <v>45118</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34964,7 +34964,7 @@
         <v>45125</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35021,7 +35021,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45127</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45131</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35259,7 +35259,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35316,7 +35316,7 @@
         <v>45138</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35373,7 +35373,7 @@
         <v>45141</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35430,7 +35430,7 @@
         <v>45152</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35487,7 +35487,7 @@
         <v>45159</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>45159</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>12.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -609,23 +609,31 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
+          <t>Knärot
+Grön aspvedbock
+Spillkråka
 Tallticka
 Talltita
 Ullticka
+Vedtrappmossa
+Barkticka
+Björksplintborre
 Brandticka
 Bronshjon
-Thomsons trägnagare</t>
+Gullgröppa
+Thomsons trägnagare
+Vedticka
+Vågbandad barkbock</t>
         </is>
       </c>
       <c r="S2">
@@ -636,6 +644,10 @@
         <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 37992-2023.png")</f>
         <v/>
       </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 37992-2023.png")</f>
+        <v/>
+      </c>
       <c r="V2">
         <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 37992-2023.docx")</f>
         <v/>
@@ -663,7 +675,7 @@
         <v>44404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +769,7 @@
         <v>44127</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +862,7 @@
         <v>44572</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +955,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1048,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1136,7 @@
         <v>43807</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1223,7 @@
         <v>44504</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1314,7 @@
         <v>43410</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1405,7 @@
         <v>43662</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1495,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1586,7 @@
         <v>44473</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1672,7 @@
         <v>44552</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1758,7 @@
         <v>44875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1832,7 +1844,7 @@
         <v>45001</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1930,7 @@
         <v>45097</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2016,7 @@
         <v>43356</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2101,7 @@
         <v>43502</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2191,7 @@
         <v>43529</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2280,7 @@
         <v>43875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2365,7 @@
         <v>44020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2454,7 @@
         <v>44067</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2532,7 +2544,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2622,7 +2634,7 @@
         <v>44076</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2707,7 +2719,7 @@
         <v>44132</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2792,7 +2804,7 @@
         <v>44277</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,7 +2889,7 @@
         <v>44608</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,7 +2979,7 @@
         <v>44756</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3057,7 +3069,7 @@
         <v>44973</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3147,7 +3159,7 @@
         <v>45075</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3232,7 +3244,7 @@
         <v>45116</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3317,7 +3329,7 @@
         <v>43334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3374,7 +3386,7 @@
         <v>43361</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3436,7 +3448,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3493,7 +3505,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3550,7 +3562,7 @@
         <v>43377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3612,7 +3624,7 @@
         <v>43410</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3669,7 +3681,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3726,7 +3738,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3783,7 +3795,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3840,7 +3852,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3902,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3959,7 +3971,7 @@
         <v>43431</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4016,7 +4028,7 @@
         <v>43432</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4073,7 +4085,7 @@
         <v>43438</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4130,7 +4142,7 @@
         <v>43439</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4187,7 +4199,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4244,7 +4256,7 @@
         <v>43446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4301,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4358,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4415,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4472,7 +4484,7 @@
         <v>43451</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4529,7 +4541,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4586,7 +4598,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4643,7 +4655,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4700,7 +4712,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4757,7 +4769,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4814,7 +4826,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4871,7 +4883,7 @@
         <v>43473</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4928,7 +4940,7 @@
         <v>43474</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4985,7 +4997,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5042,7 +5054,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5099,7 +5111,7 @@
         <v>43485</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5156,7 +5168,7 @@
         <v>43488</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5213,7 +5225,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5270,7 +5282,7 @@
         <v>43493</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5327,7 +5339,7 @@
         <v>43496</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5384,7 +5396,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5446,7 +5458,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5503,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5565,7 +5577,7 @@
         <v>43503</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5622,7 +5634,7 @@
         <v>43504</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5679,7 +5691,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5736,7 +5748,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5793,7 +5805,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5850,7 +5862,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5907,7 +5919,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5964,7 +5976,7 @@
         <v>43511</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6021,7 +6033,7 @@
         <v>43523</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6078,7 +6090,7 @@
         <v>43527</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6135,7 +6147,7 @@
         <v>43532</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6192,7 +6204,7 @@
         <v>43536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6249,7 +6261,7 @@
         <v>43537</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6306,7 +6318,7 @@
         <v>43538</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6363,7 +6375,7 @@
         <v>43543</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6420,7 +6432,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6482,7 +6494,7 @@
         <v>43548</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6539,7 +6551,7 @@
         <v>43553</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6596,7 +6608,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6653,7 +6665,7 @@
         <v>43558</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6715,7 +6727,7 @@
         <v>43559</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6777,7 +6789,7 @@
         <v>43562</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6834,7 +6846,7 @@
         <v>43563</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6896,7 +6908,7 @@
         <v>43567</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6953,7 +6965,7 @@
         <v>43584</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7010,7 +7022,7 @@
         <v>43585</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7072,7 +7084,7 @@
         <v>43591</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7134,7 +7146,7 @@
         <v>43602</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7196,7 +7208,7 @@
         <v>43608</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7253,7 +7265,7 @@
         <v>43613</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7310,7 +7322,7 @@
         <v>43614</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7367,7 +7379,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7424,7 +7436,7 @@
         <v>43621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7481,7 +7493,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7538,7 +7550,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7595,7 +7607,7 @@
         <v>43628</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7652,7 +7664,7 @@
         <v>43629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7709,7 +7721,7 @@
         <v>43635</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7766,7 +7778,7 @@
         <v>43639</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7823,7 +7835,7 @@
         <v>43640</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7880,7 +7892,7 @@
         <v>43648</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7937,7 +7949,7 @@
         <v>43664</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7994,7 +8006,7 @@
         <v>43668</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8051,7 +8063,7 @@
         <v>43670</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8108,7 +8120,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8170,7 +8182,7 @@
         <v>43677</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8227,7 +8239,7 @@
         <v>43679</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8284,7 +8296,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8341,7 +8353,7 @@
         <v>43691</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8398,7 +8410,7 @@
         <v>43698</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8455,7 +8467,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8512,7 +8524,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8569,7 +8581,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8626,7 +8638,7 @@
         <v>43727</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8683,7 +8695,7 @@
         <v>43728</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8740,7 +8752,7 @@
         <v>43739</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8797,7 +8809,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8854,7 +8866,7 @@
         <v>43741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8911,7 +8923,7 @@
         <v>43746</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8980,7 @@
         <v>43752</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9025,7 +9037,7 @@
         <v>43768</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9082,7 +9094,7 @@
         <v>43769</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9139,7 +9151,7 @@
         <v>43773</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9208,7 @@
         <v>43774</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9265,7 @@
         <v>43775</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9315,7 +9327,7 @@
         <v>43777</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9377,7 +9389,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9439,7 +9451,7 @@
         <v>43783</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9496,7 +9508,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9553,7 +9565,7 @@
         <v>43784</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9610,7 +9622,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9667,7 +9679,7 @@
         <v>43791</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9724,7 +9736,7 @@
         <v>43794</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9781,7 +9793,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9838,7 +9850,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9895,7 +9907,7 @@
         <v>43801</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9957,7 +9969,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10019,7 +10031,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10076,7 +10088,7 @@
         <v>43818</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10133,7 +10145,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10190,7 +10202,7 @@
         <v>43822</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10247,7 +10259,7 @@
         <v>43832</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10304,7 +10316,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10366,7 +10378,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10428,7 +10440,7 @@
         <v>43837</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10485,7 +10497,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10547,7 +10559,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10604,7 +10616,7 @@
         <v>43841</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10661,7 +10673,7 @@
         <v>43843</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10730,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10775,7 +10787,7 @@
         <v>43847</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10832,7 +10844,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10889,7 +10901,7 @@
         <v>43853</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10946,7 +10958,7 @@
         <v>43859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11003,7 +11015,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11065,7 +11077,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11122,7 +11134,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11184,7 +11196,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11241,7 +11253,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11298,7 +11310,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11355,7 +11367,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11412,7 +11424,7 @@
         <v>43882</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11469,7 +11481,7 @@
         <v>43885</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11526,7 +11538,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11583,7 +11595,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11640,7 +11652,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11697,7 +11709,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11754,7 +11766,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11811,7 +11823,7 @@
         <v>43906</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11868,7 +11880,7 @@
         <v>43908</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11925,7 +11937,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11982,7 +11994,7 @@
         <v>43915</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12039,7 +12051,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12096,7 +12108,7 @@
         <v>43916</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12153,7 +12165,7 @@
         <v>43922</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12210,7 +12222,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12267,7 +12279,7 @@
         <v>43923</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12324,7 +12336,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12381,7 +12393,7 @@
         <v>43924</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12438,7 +12450,7 @@
         <v>43930</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12495,7 +12507,7 @@
         <v>43936</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12552,7 +12564,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12609,7 +12621,7 @@
         <v>43957</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12666,7 +12678,7 @@
         <v>43959</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12723,7 +12735,7 @@
         <v>43976</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12780,7 +12792,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12837,7 +12849,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12894,7 +12906,7 @@
         <v>43987</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12951,7 +12963,7 @@
         <v>43990</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13013,7 +13025,7 @@
         <v>43994</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13070,7 +13082,7 @@
         <v>44005</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13127,7 +13139,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13184,7 +13196,7 @@
         <v>44006</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13241,7 +13253,7 @@
         <v>44007</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13298,7 +13310,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13355,7 +13367,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13412,7 +13424,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13469,7 +13481,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13526,7 +13538,7 @@
         <v>44021</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13583,7 +13595,7 @@
         <v>44032</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13640,7 +13652,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13697,7 +13709,7 @@
         <v>44054</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13759,7 +13771,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13821,7 +13833,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13883,7 +13895,7 @@
         <v>44061</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13940,7 +13952,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13997,7 +14009,7 @@
         <v>44067</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14059,7 +14071,7 @@
         <v>44074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14116,7 +14128,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14173,7 +14185,7 @@
         <v>44076</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14230,7 +14242,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14287,7 +14299,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14344,7 +14356,7 @@
         <v>44081</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14401,7 +14413,7 @@
         <v>44085</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14458,7 +14470,7 @@
         <v>44088</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14515,7 +14527,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14572,7 +14584,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14634,7 +14646,7 @@
         <v>44110</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14691,7 +14703,7 @@
         <v>44111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14748,7 +14760,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14805,7 +14817,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14862,7 +14874,7 @@
         <v>44127</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14919,7 +14931,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14976,7 +14988,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15033,7 +15045,7 @@
         <v>44132</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15090,7 +15102,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15147,7 +15159,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15204,7 +15216,7 @@
         <v>44141</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15266,7 +15278,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15323,7 +15335,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15380,7 +15392,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15437,7 +15449,7 @@
         <v>44156</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15494,7 +15506,7 @@
         <v>44158</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15551,7 +15563,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15608,7 +15620,7 @@
         <v>44172</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15665,7 +15677,7 @@
         <v>44182</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15722,7 +15734,7 @@
         <v>44191</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15779,7 +15791,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15836,7 +15848,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15893,7 +15905,7 @@
         <v>44193</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15950,7 +15962,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16007,7 +16019,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16064,7 +16076,7 @@
         <v>44209</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16141,7 +16153,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16203,7 +16215,7 @@
         <v>44225</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16260,7 +16272,7 @@
         <v>44232</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16317,7 +16329,7 @@
         <v>44235</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16374,7 +16386,7 @@
         <v>44242</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16436,7 +16448,7 @@
         <v>44243</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16493,7 +16505,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16550,7 +16562,7 @@
         <v>44244</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16607,7 +16619,7 @@
         <v>44256</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16664,7 +16676,7 @@
         <v>44259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16721,7 +16733,7 @@
         <v>44260</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16783,7 +16795,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16845,7 +16857,7 @@
         <v>44264</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16902,7 +16914,7 @@
         <v>44272</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16959,7 +16971,7 @@
         <v>44277</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17016,7 +17028,7 @@
         <v>44284</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17078,7 +17090,7 @@
         <v>44285</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17135,7 +17147,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17192,7 +17204,7 @@
         <v>44301</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17249,7 +17261,7 @@
         <v>44305</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17311,7 +17323,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17368,7 +17380,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17430,7 +17442,7 @@
         <v>44308</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17487,7 +17499,7 @@
         <v>44321</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17544,7 +17556,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17601,7 +17613,7 @@
         <v>44323</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17658,7 +17670,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17715,7 +17727,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17772,7 +17784,7 @@
         <v>44334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17829,7 +17841,7 @@
         <v>44340</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17886,7 +17898,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17943,7 +17955,7 @@
         <v>44348</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18000,7 +18012,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18057,7 +18069,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18114,7 +18126,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18171,7 +18183,7 @@
         <v>44363</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18228,7 +18240,7 @@
         <v>44365</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18285,7 +18297,7 @@
         <v>44368</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18342,7 +18354,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18399,7 +18411,7 @@
         <v>44369</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18461,7 +18473,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18523,7 +18535,7 @@
         <v>44375</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18585,7 +18597,7 @@
         <v>44378</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18642,7 +18654,7 @@
         <v>44383</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18704,7 +18716,7 @@
         <v>44384</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18761,7 +18773,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18818,7 +18830,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18875,7 +18887,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18932,7 +18944,7 @@
         <v>44400</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18989,7 +19001,7 @@
         <v>44403</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19046,7 +19058,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19103,7 +19115,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19160,7 +19172,7 @@
         <v>44405</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19222,7 +19234,7 @@
         <v>44410</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19284,7 +19296,7 @@
         <v>44414</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19341,7 +19353,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19398,7 +19410,7 @@
         <v>44419</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19460,7 +19472,7 @@
         <v>44421</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19517,7 +19529,7 @@
         <v>44424</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19574,7 +19586,7 @@
         <v>44432</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19631,7 +19643,7 @@
         <v>44433</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19688,7 +19700,7 @@
         <v>44448</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19745,7 +19757,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19802,7 +19814,7 @@
         <v>44449</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19859,7 +19871,7 @@
         <v>44460</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19916,7 +19928,7 @@
         <v>44473</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19973,7 +19985,7 @@
         <v>44482</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20030,7 +20042,7 @@
         <v>44483</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20087,7 +20099,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20144,7 +20156,7 @@
         <v>44487</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20206,7 +20218,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20268,7 +20280,7 @@
         <v>44488</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20325,7 +20337,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20382,7 +20394,7 @@
         <v>44502</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20439,7 +20451,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20496,7 +20508,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20558,7 +20570,7 @@
         <v>44504</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20615,7 +20627,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20672,7 +20684,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20729,7 +20741,7 @@
         <v>44505</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20786,7 +20798,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20843,7 +20855,7 @@
         <v>44512</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20900,7 +20912,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20957,7 +20969,7 @@
         <v>44515</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21014,7 +21026,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21071,7 +21083,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21128,7 +21140,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21185,7 +21197,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21242,7 +21254,7 @@
         <v>44517</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21299,7 +21311,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21356,7 +21368,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21413,7 +21425,7 @@
         <v>44522</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21470,7 +21482,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21547,7 +21559,7 @@
         <v>44525</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21604,7 +21616,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21661,7 +21673,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21718,7 +21730,7 @@
         <v>44528</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21775,7 +21787,7 @@
         <v>44529</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21832,7 +21844,7 @@
         <v>44530</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21889,7 +21901,7 @@
         <v>44538</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21946,7 +21958,7 @@
         <v>44545</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22003,7 +22015,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22060,7 +22072,7 @@
         <v>44546</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22117,7 +22129,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22174,7 +22186,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22231,7 +22243,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22288,7 +22300,7 @@
         <v>44547</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22345,7 +22357,7 @@
         <v>44550</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22402,7 +22414,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22459,7 +22471,7 @@
         <v>44551</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22516,7 +22528,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22573,7 +22585,7 @@
         <v>44552</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22630,7 +22642,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22687,7 +22699,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22744,7 +22756,7 @@
         <v>44567</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22801,7 +22813,7 @@
         <v>44571</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22858,7 +22870,7 @@
         <v>44572</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22915,7 +22927,7 @@
         <v>44575</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22972,7 +22984,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23029,7 +23041,7 @@
         <v>44582</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23086,7 +23098,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23143,7 +23155,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23200,7 +23212,7 @@
         <v>44586</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23257,7 +23269,7 @@
         <v>44587</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23314,7 +23326,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23371,7 +23383,7 @@
         <v>44588</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23428,7 +23440,7 @@
         <v>44599</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23485,7 +23497,7 @@
         <v>44602</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23542,7 +23554,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23599,7 +23611,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23656,7 +23668,7 @@
         <v>44604</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23713,7 +23725,7 @@
         <v>44620</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23770,7 +23782,7 @@
         <v>44623</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23827,7 +23839,7 @@
         <v>44624</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23884,7 +23896,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23941,7 +23953,7 @@
         <v>44630</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23998,7 +24010,7 @@
         <v>44637</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24055,7 +24067,7 @@
         <v>44650</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24112,7 +24124,7 @@
         <v>44664</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24169,7 +24181,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24226,7 +24238,7 @@
         <v>44671</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24283,7 +24295,7 @@
         <v>44673</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24340,7 +24352,7 @@
         <v>44676</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24397,7 +24409,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24454,7 +24466,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24511,7 +24523,7 @@
         <v>44694</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24568,7 +24580,7 @@
         <v>44699</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24625,7 +24637,7 @@
         <v>44704</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24682,7 +24694,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24739,7 +24751,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24796,7 +24808,7 @@
         <v>44713</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24853,7 +24865,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24910,7 +24922,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24967,7 +24979,7 @@
         <v>44715</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25024,7 +25036,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25081,7 +25093,7 @@
         <v>44727</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25138,7 +25150,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25195,7 +25207,7 @@
         <v>44729</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25257,7 +25269,7 @@
         <v>44732</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25314,7 +25326,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25371,7 +25383,7 @@
         <v>44741</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25433,7 +25445,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25490,7 +25502,7 @@
         <v>44746</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25547,7 +25559,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25609,7 +25621,7 @@
         <v>44747</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25666,7 +25678,7 @@
         <v>44749</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25723,7 +25735,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25780,7 +25792,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25837,7 +25849,7 @@
         <v>44750</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25894,7 +25906,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25951,7 +25963,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26008,7 +26020,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26065,7 +26077,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26122,7 +26134,7 @@
         <v>44756</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26179,7 +26191,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26236,7 +26248,7 @@
         <v>44760</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26298,7 +26310,7 @@
         <v>44768</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26355,7 +26367,7 @@
         <v>44774</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26412,7 +26424,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26469,7 +26481,7 @@
         <v>44791</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26526,7 +26538,7 @@
         <v>44795</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26583,7 +26595,7 @@
         <v>44818</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26640,7 +26652,7 @@
         <v>44819</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26697,7 +26709,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26754,7 +26766,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26811,7 +26823,7 @@
         <v>44831</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26868,7 +26880,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26925,7 +26937,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26982,7 +26994,7 @@
         <v>44837</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27039,7 +27051,7 @@
         <v>44841</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27096,7 +27108,7 @@
         <v>44844</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27153,7 +27165,7 @@
         <v>44845</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27215,7 +27227,7 @@
         <v>44847</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27272,7 +27284,7 @@
         <v>44852</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27329,7 +27341,7 @@
         <v>44855</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27391,7 +27403,7 @@
         <v>44858</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27448,7 +27460,7 @@
         <v>44860</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27505,7 +27517,7 @@
         <v>44861</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27562,7 +27574,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27619,7 +27631,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27676,7 +27688,7 @@
         <v>44866</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27733,7 +27745,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27790,7 +27802,7 @@
         <v>44871</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27852,7 +27864,7 @@
         <v>44874</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27914,7 +27926,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27976,7 +27988,7 @@
         <v>44879</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28033,7 +28045,7 @@
         <v>44889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28095,7 +28107,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28157,7 +28169,7 @@
         <v>44890</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28214,7 +28226,7 @@
         <v>44894</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28271,7 +28283,7 @@
         <v>44910</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28333,7 +28345,7 @@
         <v>44912</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28390,7 +28402,7 @@
         <v>44914</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28447,7 +28459,7 @@
         <v>44917</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28504,7 +28516,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28561,7 +28573,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28618,7 +28630,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28675,7 +28687,7 @@
         <v>44918</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28732,7 +28744,7 @@
         <v>44935</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28789,7 +28801,7 @@
         <v>44937</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28846,7 +28858,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28903,7 +28915,7 @@
         <v>44939</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28960,7 +28972,7 @@
         <v>44943</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29017,7 +29029,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29074,7 +29086,7 @@
         <v>44957</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29131,7 +29143,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29188,7 +29200,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29245,7 +29257,7 @@
         <v>44964</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29302,7 +29314,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29359,7 +29371,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29416,7 +29428,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29473,7 +29485,7 @@
         <v>44965</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29535,7 +29547,7 @@
         <v>44967</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29592,7 +29604,7 @@
         <v>44970</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29649,7 +29661,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29706,7 +29718,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29763,7 +29775,7 @@
         <v>44971</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29820,7 +29832,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29877,7 +29889,7 @@
         <v>44972</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29934,7 +29946,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29991,7 +30003,7 @@
         <v>44973</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30053,7 +30065,7 @@
         <v>44979</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30110,7 +30122,7 @@
         <v>44992</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30167,7 +30179,7 @@
         <v>44995</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30224,7 +30236,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30281,7 +30293,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30338,7 +30350,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30395,7 +30407,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30452,7 +30464,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30509,7 +30521,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30566,7 +30578,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30623,7 +30635,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30680,7 +30692,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30737,7 +30749,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30794,7 +30806,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30851,7 +30863,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30908,7 +30920,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30965,7 +30977,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31022,7 +31034,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31079,7 +31091,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31136,7 +31148,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31198,7 +31210,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31255,7 +31267,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31312,7 +31324,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31369,7 +31381,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31426,7 +31438,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31483,7 +31495,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31540,7 +31552,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31602,7 +31614,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31664,7 +31676,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31726,7 +31738,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31788,7 +31800,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31850,7 +31862,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31907,7 +31919,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31964,7 +31976,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32021,7 +32033,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32078,7 +32090,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32135,7 +32147,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32197,7 +32209,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32254,7 +32266,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32316,7 +32328,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32373,7 +32385,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32430,7 +32442,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32487,7 +32499,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32544,7 +32556,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32601,7 +32613,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32658,7 +32670,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32715,7 +32727,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32772,7 +32784,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32834,7 +32846,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32891,7 +32903,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32948,7 +32960,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33005,7 +33017,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33062,7 +33074,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33119,7 +33131,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33176,7 +33188,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33233,7 +33245,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33290,7 +33302,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33347,7 +33359,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33409,7 +33421,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33466,7 +33478,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33528,7 +33540,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33590,7 +33602,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33652,7 +33664,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33709,7 +33721,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33766,7 +33778,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33823,7 +33835,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33885,7 +33897,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33942,7 +33954,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33999,7 +34011,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34061,7 +34073,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34123,7 +34135,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34180,7 +34192,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34242,7 +34254,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34304,7 +34316,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34361,7 +34373,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34423,7 +34435,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34480,7 +34492,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34542,7 +34554,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34599,7 +34611,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34656,7 +34668,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34713,7 +34725,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34770,7 +34782,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34827,7 +34839,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34884,7 +34896,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34941,7 +34953,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34998,7 +35010,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35055,7 +35067,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35112,7 +35124,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35174,7 +35186,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35236,7 +35248,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35293,7 +35305,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35350,7 +35362,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35407,7 +35419,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35464,7 +35476,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35521,7 +35533,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35578,7 +35590,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35635,7 +35647,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35692,7 +35704,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>45159</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44995</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,17 +691,17 @@
         <v>28.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -712,23 +712,30 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Knärot
+Laxporing
+Rynkskinn
 Vågticka
 Gransotdyna
 Mindre hackspett
+Motaggsvamp
+Spillkråka
 Talltita
 Ullticka
-Bronshjon</t>
+Björksplintborre
+Bronshjon
+Thomsons trägnagare
+Vedticka</t>
         </is>
       </c>
       <c r="S3">
@@ -770,7 +777,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +871,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +964,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1057,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1150,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1238,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1325,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1416,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1507,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1597,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1688,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1767,7 +1774,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1853,7 +1860,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1939,7 +1946,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2032,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2111,7 +2118,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2196,7 +2203,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2286,7 +2293,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2382,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2467,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2549,7 +2556,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2639,7 +2646,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2736,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2814,7 +2821,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2899,7 +2906,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2984,7 +2991,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3081,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3164,7 +3171,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3254,7 +3261,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3339,7 +3346,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3424,7 +3431,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3481,7 +3488,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3543,7 +3550,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3600,7 +3607,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3657,7 +3664,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3719,7 +3726,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3776,7 +3783,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3833,7 +3840,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3890,7 +3897,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3947,7 +3954,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4009,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4066,7 +4073,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4123,7 +4130,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4180,7 +4187,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4237,7 +4244,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4294,7 +4301,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4351,7 +4358,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4408,7 +4415,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4465,7 +4472,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4522,7 +4529,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4579,7 +4586,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4636,7 +4643,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4693,7 +4700,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4750,7 +4757,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4807,7 +4814,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4864,7 +4871,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4921,7 +4928,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4978,7 +4985,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5035,7 +5042,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5092,7 +5099,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5149,7 +5156,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5206,7 +5213,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5263,7 +5270,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5320,7 +5327,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5377,7 +5384,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5434,7 +5441,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5491,7 +5498,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5553,7 +5560,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5610,7 +5617,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5672,7 +5679,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5729,7 +5736,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5786,7 +5793,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5843,7 +5850,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5900,7 +5907,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5957,7 +5964,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6014,7 +6021,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6071,7 +6078,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6128,7 +6135,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6185,7 +6192,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6242,7 +6249,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6299,7 +6306,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6356,7 +6363,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6413,7 +6420,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6470,7 +6477,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6527,7 +6534,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6589,7 +6596,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6646,7 +6653,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6703,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6760,7 +6767,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6822,7 +6829,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6884,7 +6891,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6941,7 +6948,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7003,7 +7010,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7060,7 +7067,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7117,7 +7124,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7179,7 +7186,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7241,7 +7248,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7303,7 +7310,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7360,7 +7367,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7417,7 +7424,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7474,7 +7481,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7531,7 +7538,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7588,7 +7595,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7645,7 +7652,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7702,7 +7709,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7759,7 +7766,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7816,7 +7823,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7873,7 +7880,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7930,7 +7937,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7987,7 +7994,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8044,7 +8051,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8101,7 +8108,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8158,7 +8165,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8215,7 +8222,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8277,7 +8284,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8334,7 +8341,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8391,7 +8398,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8448,7 +8455,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8505,7 +8512,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8562,7 +8569,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8619,7 +8626,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8676,7 +8683,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8733,7 +8740,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8790,7 +8797,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8847,7 +8854,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8904,7 +8911,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8961,7 +8968,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9018,7 +9025,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9075,7 +9082,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9132,7 +9139,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9189,7 +9196,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9246,7 +9253,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9303,7 +9310,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9360,7 +9367,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9422,7 +9429,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9484,7 +9491,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9546,7 +9553,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9603,7 +9610,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9660,7 +9667,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9717,7 +9724,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9774,7 +9781,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9831,7 +9838,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9888,7 +9895,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9945,7 +9952,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10002,7 +10009,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10064,7 +10071,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10126,7 +10133,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10183,7 +10190,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10240,7 +10247,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10297,7 +10304,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10354,7 +10361,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10418,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10480,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10535,7 +10542,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10592,7 +10599,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10654,7 +10661,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10711,7 +10718,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10768,7 +10775,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10825,7 +10832,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10882,7 +10889,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10939,7 +10946,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +11003,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11060,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11117,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11172,7 +11179,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11229,7 +11236,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11291,7 +11298,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11348,7 +11355,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11405,7 +11412,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11462,7 +11469,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11519,7 +11526,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11583,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11633,7 +11640,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11690,7 +11697,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11747,7 +11754,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11811,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11861,7 +11868,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11918,7 +11925,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11975,7 +11982,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12032,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12089,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12146,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12203,7 +12210,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12260,7 +12267,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12317,7 +12324,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12374,7 +12381,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12431,7 +12438,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12488,7 +12495,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12545,7 +12552,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12602,7 +12609,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12659,7 +12666,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12716,7 +12723,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12773,7 +12780,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12830,7 +12837,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12887,7 +12894,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12944,7 +12951,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13001,7 +13008,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13058,7 +13065,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13120,7 +13127,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13177,7 +13184,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13234,7 +13241,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13291,7 +13298,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13348,7 +13355,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13405,7 +13412,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13462,7 +13469,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13519,7 +13526,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13576,7 +13583,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13633,7 +13640,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13690,7 +13697,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13747,7 +13754,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13804,7 +13811,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13866,7 +13873,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13928,7 +13935,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13990,7 +13997,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14047,7 +14054,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14104,7 +14111,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14166,7 +14173,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14223,7 +14230,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14280,7 +14287,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14337,7 +14344,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14394,7 +14401,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14451,7 +14458,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14508,7 +14515,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14565,7 +14572,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14622,7 +14629,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14679,7 +14686,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14741,7 +14748,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14798,7 +14805,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14855,7 +14862,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14912,7 +14919,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14969,7 +14976,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15026,7 +15033,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15083,7 +15090,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15140,7 +15147,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15197,7 +15204,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15254,7 +15261,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15311,7 +15318,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15373,7 +15380,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15430,7 +15437,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15487,7 +15494,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15544,7 +15551,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15601,7 +15608,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15658,7 +15665,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15715,7 +15722,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15772,7 +15779,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15829,7 +15836,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15886,7 +15893,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15943,7 +15950,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16000,7 +16007,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16057,7 +16064,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16114,7 +16121,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16171,7 +16178,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16248,7 +16255,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16310,7 +16317,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16367,7 +16374,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16424,7 +16431,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16481,7 +16488,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16543,7 +16550,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16600,7 +16607,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16657,7 +16664,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16714,7 +16721,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16771,7 +16778,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16828,7 +16835,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16890,7 +16897,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16952,7 +16959,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17009,7 +17016,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17066,7 +17073,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17123,7 +17130,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17185,7 +17192,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17242,7 +17249,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17299,7 +17306,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17356,7 +17363,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17418,7 +17425,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17475,7 +17482,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17537,7 +17544,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17594,7 +17601,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17651,7 +17658,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17708,7 +17715,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17765,7 +17772,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17822,7 +17829,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17879,7 +17886,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17936,7 +17943,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17993,7 +18000,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18050,7 +18057,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18107,7 +18114,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18164,7 +18171,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18221,7 +18228,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18278,7 +18285,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18335,7 +18342,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18392,7 +18399,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18449,7 +18456,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18506,7 +18513,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18568,7 +18575,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18630,7 +18637,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18692,7 +18699,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18749,7 +18756,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18811,7 +18818,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18868,7 +18875,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18925,7 +18932,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18982,7 +18989,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19039,7 +19046,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19096,7 +19103,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19153,7 +19160,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19210,7 +19217,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19267,7 +19274,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19329,7 +19336,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19391,7 +19398,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19448,7 +19455,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19505,7 +19512,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19567,7 +19574,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19624,7 +19631,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19681,7 +19688,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19738,7 +19745,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19795,7 +19802,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19852,7 +19859,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19909,7 +19916,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19966,7 +19973,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20023,7 +20030,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20080,7 +20087,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20137,7 +20144,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20194,7 +20201,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20251,7 +20258,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20313,7 +20320,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20375,7 +20382,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20432,7 +20439,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20489,7 +20496,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20546,7 +20553,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20603,7 +20610,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20665,7 +20672,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20722,7 +20729,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20779,7 +20786,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20836,7 +20843,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20893,7 +20900,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20950,7 +20957,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21007,7 +21014,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21064,7 +21071,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21121,7 +21128,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21178,7 +21185,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21235,7 +21242,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21292,7 +21299,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21349,7 +21356,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21406,7 +21413,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21463,7 +21470,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21520,7 +21527,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21577,7 +21584,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21654,7 +21661,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21711,7 +21718,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21768,7 +21775,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21825,7 +21832,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21882,7 +21889,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21939,7 +21946,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21996,7 +22003,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22053,7 +22060,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22110,7 +22117,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22167,7 +22174,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22224,7 +22231,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22281,7 +22288,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22338,7 +22345,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22395,7 +22402,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22452,7 +22459,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22509,7 +22516,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22566,7 +22573,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22623,7 +22630,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22680,7 +22687,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22737,7 +22744,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22794,7 +22801,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22851,7 +22858,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22908,7 +22915,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22965,7 +22972,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23022,7 +23029,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23079,7 +23086,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23136,7 +23143,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23193,7 +23200,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23250,7 +23257,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23307,7 +23314,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23364,7 +23371,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23421,7 +23428,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23478,7 +23485,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23535,7 +23542,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23592,7 +23599,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23649,7 +23656,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23706,7 +23713,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23763,7 +23770,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23820,7 +23827,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23877,7 +23884,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23934,7 +23941,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23991,7 +23998,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24048,7 +24055,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24105,7 +24112,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24162,7 +24169,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24219,7 +24226,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24276,7 +24283,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24333,7 +24340,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24390,7 +24397,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24447,7 +24454,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24504,7 +24511,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24561,7 +24568,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24618,7 +24625,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24675,7 +24682,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24732,7 +24739,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24789,7 +24796,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24846,7 +24853,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24903,7 +24910,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24960,7 +24967,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25017,7 +25024,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25074,7 +25081,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25131,7 +25138,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25188,7 +25195,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25245,7 +25252,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25302,7 +25309,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25364,7 +25371,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25421,7 +25428,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25478,7 +25485,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25540,7 +25547,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25597,7 +25604,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25654,7 +25661,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25716,7 +25723,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25773,7 +25780,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25830,7 +25837,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25887,7 +25894,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25944,7 +25951,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26001,7 +26008,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26058,7 +26065,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26115,7 +26122,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26172,7 +26179,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26229,7 +26236,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26286,7 +26293,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26343,7 +26350,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26405,7 +26412,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26462,7 +26469,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26519,7 +26526,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26576,7 +26583,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26633,7 +26640,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26690,7 +26697,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26747,7 +26754,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26804,7 +26811,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26861,7 +26868,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26918,7 +26925,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26975,7 +26982,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27032,7 +27039,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27089,7 +27096,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27146,7 +27153,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27203,7 +27210,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27260,7 +27267,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27322,7 +27329,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27379,7 +27386,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27436,7 +27443,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27498,7 +27505,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27555,7 +27562,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27612,7 +27619,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27669,7 +27676,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27726,7 +27733,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27783,7 +27790,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27840,7 +27847,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27897,7 +27904,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27959,7 +27966,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28021,7 +28028,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28083,7 +28090,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28140,7 +28147,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28202,7 +28209,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28264,7 +28271,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28321,7 +28328,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28378,7 +28385,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28440,7 +28447,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28497,7 +28504,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28554,7 +28561,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28611,7 +28618,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28668,7 +28675,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28725,7 +28732,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28782,7 +28789,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28839,7 +28846,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28896,7 +28903,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28953,7 +28960,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29010,7 +29017,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29067,7 +29074,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29124,7 +29131,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29181,7 +29188,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29238,7 +29245,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29295,7 +29302,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29352,7 +29359,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29409,7 +29416,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29466,7 +29473,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29523,7 +29530,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29580,7 +29587,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29642,7 +29649,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29699,7 +29706,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29756,7 +29763,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29813,7 +29820,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29870,7 +29877,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29927,7 +29934,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29984,7 +29991,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30041,7 +30048,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30098,7 +30105,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30160,7 +30167,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30217,7 +30224,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30274,7 +30281,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30331,7 +30338,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30388,7 +30395,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30445,7 +30452,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30502,7 +30509,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30559,7 +30566,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30616,7 +30623,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30673,7 +30680,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30730,7 +30737,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30787,7 +30794,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30844,7 +30851,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30901,7 +30908,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30958,7 +30965,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31015,7 +31022,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31072,7 +31079,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31129,7 +31136,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31186,7 +31193,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31248,7 +31255,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31305,7 +31312,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31362,7 +31369,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31419,7 +31426,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31476,7 +31483,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31533,7 +31540,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31590,7 +31597,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31652,7 +31659,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31714,7 +31721,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31776,7 +31783,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31838,7 +31845,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31900,7 +31907,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31957,7 +31964,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32014,7 +32021,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32071,7 +32078,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32128,7 +32135,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32185,7 +32192,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32247,7 +32254,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32304,7 +32311,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32366,7 +32373,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32423,7 +32430,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32480,7 +32487,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32537,7 +32544,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32594,7 +32601,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32651,7 +32658,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32708,7 +32715,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32765,7 +32772,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32822,7 +32829,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32884,7 +32891,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32941,7 +32948,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32998,7 +33005,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33055,7 +33062,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33112,7 +33119,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33169,7 +33176,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33226,7 +33233,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33283,7 +33290,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33340,7 +33347,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33397,7 +33404,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33459,7 +33466,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33516,7 +33523,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33578,7 +33585,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33640,7 +33647,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33702,7 +33709,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33759,7 +33766,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33816,7 +33823,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33873,7 +33880,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33935,7 +33942,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33992,7 +33999,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34049,7 +34056,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34111,7 +34118,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34173,7 +34180,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34230,7 +34237,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34292,7 +34299,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34354,7 +34361,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34411,7 +34418,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34473,7 +34480,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34530,7 +34537,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34592,7 +34599,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34649,7 +34656,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34706,7 +34713,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34763,7 +34770,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34820,7 +34827,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34877,7 +34884,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34934,7 +34941,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34991,7 +34998,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35048,7 +35055,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35105,7 +35112,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35162,7 +35169,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35224,7 +35231,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35286,7 +35293,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35343,7 +35350,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35400,7 +35407,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35457,7 +35464,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35514,7 +35521,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35571,7 +35578,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35628,7 +35635,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35685,7 +35692,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35742,7 +35749,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>45159</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44995</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27096,7 +27096,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31193,7 +31193,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31597,7 +31597,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31659,7 +31659,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31783,7 +31783,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32891,7 +32891,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33466,7 +33466,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34299,7 +34299,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35464,7 +35464,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35521,7 +35521,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35578,7 +35578,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>45159</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44995</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27096,7 +27096,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31193,7 +31193,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31597,7 +31597,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31659,7 +31659,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31783,7 +31783,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32891,7 +32891,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33466,7 +33466,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34299,7 +34299,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35464,7 +35464,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35521,7 +35521,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35578,7 +35578,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>45159</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44995</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27096,7 +27096,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31193,7 +31193,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31597,7 +31597,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31659,7 +31659,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31783,7 +31783,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32891,7 +32891,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33466,7 +33466,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34299,7 +34299,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35464,7 +35464,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35521,7 +35521,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35578,7 +35578,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y593"/>
+  <dimension ref="A1:Y595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45159</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44995</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27096,7 +27096,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31193,7 +31193,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31597,7 +31597,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31659,7 +31659,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31783,7 +31783,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32891,7 +32891,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33466,7 +33466,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34299,7 +34299,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35464,7 +35464,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35521,7 +35521,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35578,7 +35578,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
       </c>
       <c r="R592" s="2" t="inlineStr"/>
     </row>
-    <row r="593">
+    <row r="593" ht="15" customHeight="1">
       <c r="A593" t="inlineStr">
         <is>
           <t>A 39604-2023</t>
@@ -35749,7 +35749,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35795,6 +35795,120 @@
         <v>0</v>
       </c>
       <c r="R593" s="2" t="inlineStr"/>
+    </row>
+    <row r="594" ht="15" customHeight="1">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>A 43187-2023</t>
+        </is>
+      </c>
+      <c r="B594" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C594" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>SALA</t>
+        </is>
+      </c>
+      <c r="G594" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N594" t="n">
+        <v>0</v>
+      </c>
+      <c r="O594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R594" s="2" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>A 43188-2023</t>
+        </is>
+      </c>
+      <c r="B595" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C595" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>SALA</t>
+        </is>
+      </c>
+      <c r="G595" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0</v>
+      </c>
+      <c r="J595" t="n">
+        <v>0</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N595" t="n">
+        <v>0</v>
+      </c>
+      <c r="O595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R595" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -565,14 +565,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 37992-2023</t>
+          <t>A 12276-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45159</v>
+        <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -585,39 +585,149 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>12.3</v>
+        <v>28.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
       </c>
       <c r="J2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Laxporing
+Rynkskinn
+Tallbarksvartbagge
+Vågticka
+Gransotdyna
+Mindre hackspett
+Motaggsvamp
+Spillkråka
+Såpfingersvamp
+Tallticka
+Talltita
+Ullticka
+Vedtrappmossa
+Björksplintborre
+Brandticka
+Bronshjon
+Mindre märgborre
+Skarp dropptaggsvamp
+Thomsons trägnagare
+Vanlig flatbagge
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 12276-2023.xlsx", "A 12276-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 12276-2023.png", "A 12276-2023")</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 12276-2023.png", "A 12276-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 12276-2023.docx", "A 12276-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 12276-2023.docx", "A 12276-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 12276-2023.docx", "A 12276-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 12276-2023.docx", "A 12276-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 37992-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SALA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
         <v>6</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>7</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Grön aspvedbock
@@ -636,134 +746,32 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 37992-2023.xlsx")</f>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 37992-2023.xlsx", "A 37992-2023")</f>
         <v/>
       </c>
-      <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 37992-2023.png")</f>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 37992-2023.png", "A 37992-2023")</f>
         <v/>
       </c>
-      <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 37992-2023.png")</f>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 37992-2023.png", "A 37992-2023")</f>
         <v/>
       </c>
-      <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 37992-2023.docx")</f>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 37992-2023.docx", "A 37992-2023")</f>
         <v/>
       </c>
-      <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 37992-2023.docx")</f>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 37992-2023.docx", "A 37992-2023")</f>
         <v/>
       </c>
-      <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 37992-2023.docx")</f>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 37992-2023.docx", "A 37992-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 37992-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 12276-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44995</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SALA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Laxporing
-Rynkskinn
-Vågticka
-Gransotdyna
-Mindre hackspett
-Motaggsvamp
-Spillkråka
-Talltita
-Ullticka
-Björksplintborre
-Bronshjon
-Thomsons trägnagare
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 12276-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 12276-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 12276-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 12276-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 12276-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 12276-2023.docx")</f>
-        <v/>
-      </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 12276-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 37992-2023.docx", "A 37992-2023")</f>
         <v/>
       </c>
     </row>
@@ -777,7 +785,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,31 +841,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 38021-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 38021-2021.xlsx", "A 38021-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 38021-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 38021-2021.png", "A 38021-2021")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 38021-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 38021-2021.png", "A 38021-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 38021-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 38021-2021.docx", "A 38021-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 38021-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 38021-2021.docx", "A 38021-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 38021-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 38021-2021.docx", "A 38021-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 38021-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 38021-2021.docx", "A 38021-2021")</f>
         <v/>
       </c>
     </row>
@@ -871,7 +879,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,31 +934,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 54934-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 54934-2020.xlsx", "A 54934-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 54934-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 54934-2020.png", "A 54934-2020")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 54934-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 54934-2020.png", "A 54934-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 54934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 54934-2020.docx", "A 54934-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 54934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 54934-2020.docx", "A 54934-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 54934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 54934-2020.docx", "A 54934-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 54934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 54934-2020.docx", "A 54934-2020")</f>
         <v/>
       </c>
     </row>
@@ -964,7 +972,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,31 +1027,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 1182-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 1182-2022.xlsx", "A 1182-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 1182-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 1182-2022.png", "A 1182-2022")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 1182-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 1182-2022.png", "A 1182-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 1182-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 1182-2022.docx", "A 1182-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 1182-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 1182-2022.docx", "A 1182-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 1182-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 1182-2022.docx", "A 1182-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 1182-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 1182-2022.docx", "A 1182-2022")</f>
         <v/>
       </c>
     </row>
@@ -1057,7 +1065,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,27 +1124,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 26774-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 26774-2021.xlsx", "A 26774-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 26774-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 26774-2021.png", "A 26774-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 26774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 26774-2021.docx", "A 26774-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 26774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 26774-2021.docx", "A 26774-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 26774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 26774-2021.docx", "A 26774-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 26774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 26774-2021.docx", "A 26774-2021")</f>
         <v/>
       </c>
     </row>
@@ -1150,7 +1158,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,27 +1212,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 27488-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 27488-2023.xlsx", "A 27488-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 27488-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 27488-2023.png", "A 27488-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 27488-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 27488-2023.docx", "A 27488-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 27488-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 27488-2023.docx", "A 27488-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 27488-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 27488-2023.docx", "A 27488-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 27488-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 27488-2023.docx", "A 27488-2023")</f>
         <v/>
       </c>
     </row>
@@ -1238,7 +1246,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,27 +1299,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 66088-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 66088-2019.xlsx", "A 66088-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 66088-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 66088-2019.png", "A 66088-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 66088-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 66088-2019.docx", "A 66088-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 66088-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 66088-2019.docx", "A 66088-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 66088-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 66088-2019.docx", "A 66088-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 66088-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 66088-2019.docx", "A 66088-2019")</f>
         <v/>
       </c>
     </row>
@@ -1325,7 +1333,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,31 +1386,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 62768-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 62768-2021.xlsx", "A 62768-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 62768-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 62768-2021.png", "A 62768-2021")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 62768-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 62768-2021.png", "A 62768-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 62768-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 62768-2021.docx", "A 62768-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 62768-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 62768-2021.docx", "A 62768-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 62768-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 62768-2021.docx", "A 62768-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 62768-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 62768-2021.docx", "A 62768-2021")</f>
         <v/>
       </c>
     </row>
@@ -1416,7 +1424,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,27 +1481,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 58714-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 58714-2018.xlsx", "A 58714-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 58714-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 58714-2018.png", "A 58714-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 58714-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 58714-2018.docx", "A 58714-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 58714-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 58714-2018.docx", "A 58714-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 58714-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 58714-2018.docx", "A 58714-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 58714-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 58714-2018.docx", "A 58714-2018")</f>
         <v/>
       </c>
     </row>
@@ -1507,7 +1515,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,31 +1567,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 35213-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 35213-2019.xlsx", "A 35213-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 35213-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 35213-2019.png", "A 35213-2019")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 35213-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 35213-2019.png", "A 35213-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 35213-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 35213-2019.docx", "A 35213-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 35213-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 35213-2019.docx", "A 35213-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 35213-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 35213-2019.docx", "A 35213-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 35213-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 35213-2019.docx", "A 35213-2019")</f>
         <v/>
       </c>
     </row>
@@ -1597,7 +1605,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,27 +1662,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 59152-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 59152-2019.xlsx", "A 59152-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 59152-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 59152-2019.png", "A 59152-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 59152-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 59152-2019.docx", "A 59152-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 59152-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 59152-2019.docx", "A 59152-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 59152-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 59152-2019.docx", "A 59152-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 59152-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 59152-2019.docx", "A 59152-2019")</f>
         <v/>
       </c>
     </row>
@@ -1688,7 +1696,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1740,27 +1748,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 54555-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 54555-2021.xlsx", "A 54555-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 54555-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 54555-2021.png", "A 54555-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 54555-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 54555-2021.docx", "A 54555-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 54555-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 54555-2021.docx", "A 54555-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 54555-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 54555-2021.docx", "A 54555-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 54555-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 54555-2021.docx", "A 54555-2021")</f>
         <v/>
       </c>
     </row>
@@ -1774,7 +1782,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,27 +1834,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 73598-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 73598-2021.xlsx", "A 73598-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 73598-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 73598-2021.png", "A 73598-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 73598-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 73598-2021.docx", "A 73598-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 73598-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 73598-2021.docx", "A 73598-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 73598-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 73598-2021.docx", "A 73598-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 73598-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 73598-2021.docx", "A 73598-2021")</f>
         <v/>
       </c>
     </row>
@@ -1860,7 +1868,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1912,27 +1920,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 52909-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 52909-2022.xlsx", "A 52909-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 52909-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 52909-2022.png", "A 52909-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 52909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 52909-2022.docx", "A 52909-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 52909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 52909-2022.docx", "A 52909-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 52909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 52909-2022.docx", "A 52909-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 52909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 52909-2022.docx", "A 52909-2022")</f>
         <v/>
       </c>
     </row>
@@ -1946,7 +1954,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,27 +2006,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 13029-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 13029-2023.xlsx", "A 13029-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 13029-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 13029-2023.png", "A 13029-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 13029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 13029-2023.docx", "A 13029-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 13029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 13029-2023.docx", "A 13029-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 13029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 13029-2023.docx", "A 13029-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 13029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 13029-2023.docx", "A 13029-2023")</f>
         <v/>
       </c>
     </row>
@@ -2032,7 +2040,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,27 +2092,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 27499-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 27499-2023.xlsx", "A 27499-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 27499-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 27499-2023.png", "A 27499-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 27499-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 27499-2023.docx", "A 27499-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 27499-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 27499-2023.docx", "A 27499-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 27499-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 27499-2023.docx", "A 27499-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 27499-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 27499-2023.docx", "A 27499-2023")</f>
         <v/>
       </c>
     </row>
@@ -2118,7 +2126,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,27 +2177,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 43457-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 43457-2018.xlsx", "A 43457-2018")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 43457-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 43457-2018.png", "A 43457-2018")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 43457-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 43457-2018.docx", "A 43457-2018")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 43457-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 43457-2018.docx", "A 43457-2018")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 43457-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 43457-2018.docx", "A 43457-2018")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 43457-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 43457-2018.docx", "A 43457-2018")</f>
         <v/>
       </c>
     </row>
@@ -2203,7 +2211,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,27 +2267,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 8494-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 8494-2019.xlsx", "A 8494-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 8494-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 8494-2019.png", "A 8494-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 8494-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 8494-2019.docx", "A 8494-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 8494-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 8494-2019.docx", "A 8494-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 8494-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 8494-2019.docx", "A 8494-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 8494-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 8494-2019.docx", "A 8494-2019")</f>
         <v/>
       </c>
     </row>
@@ -2293,7 +2301,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,31 +2352,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 13519-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 13519-2019.xlsx", "A 13519-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 13519-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 13519-2019.png", "A 13519-2019")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 13519-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 13519-2019.png", "A 13519-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 13519-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 13519-2019.docx", "A 13519-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 13519-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 13519-2019.docx", "A 13519-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 13519-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 13519-2019.docx", "A 13519-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 13519-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 13519-2019.docx", "A 13519-2019")</f>
         <v/>
       </c>
     </row>
@@ -2382,7 +2390,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,27 +2441,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 8432-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 8432-2020.xlsx", "A 8432-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 8432-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 8432-2020.png", "A 8432-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 8432-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 8432-2020.docx", "A 8432-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 8432-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 8432-2020.docx", "A 8432-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 8432-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 8432-2020.docx", "A 8432-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 8432-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 8432-2020.docx", "A 8432-2020")</f>
         <v/>
       </c>
     </row>
@@ -2467,7 +2475,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,31 +2526,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 32975-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 32975-2020.xlsx", "A 32975-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 32975-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 32975-2020.png", "A 32975-2020")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 32975-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 32975-2020.png", "A 32975-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 32975-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 32975-2020.docx", "A 32975-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 32975-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 32975-2020.docx", "A 32975-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 32975-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 32975-2020.docx", "A 32975-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 32975-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 32975-2020.docx", "A 32975-2020")</f>
         <v/>
       </c>
     </row>
@@ -2556,7 +2564,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,27 +2620,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 39807-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 39807-2020.xlsx", "A 39807-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 39807-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 39807-2020.png", "A 39807-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 39807-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 39807-2020.docx", "A 39807-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 39807-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 39807-2020.docx", "A 39807-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 39807-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 39807-2020.docx", "A 39807-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 39807-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 39807-2020.docx", "A 39807-2020")</f>
         <v/>
       </c>
     </row>
@@ -2646,7 +2654,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2702,27 +2710,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 39800-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 39800-2020.xlsx", "A 39800-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 39800-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 39800-2020.png", "A 39800-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 39800-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 39800-2020.docx", "A 39800-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 39800-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 39800-2020.docx", "A 39800-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 39800-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 39800-2020.docx", "A 39800-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 39800-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 39800-2020.docx", "A 39800-2020")</f>
         <v/>
       </c>
     </row>
@@ -2736,7 +2744,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,27 +2795,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 42352-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 42352-2020.xlsx", "A 42352-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 42352-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 42352-2020.png", "A 42352-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 42352-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 42352-2020.docx", "A 42352-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 42352-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 42352-2020.docx", "A 42352-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 42352-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 42352-2020.docx", "A 42352-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 42352-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 42352-2020.docx", "A 42352-2020")</f>
         <v/>
       </c>
     </row>
@@ -2821,7 +2829,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2872,27 +2880,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 56014-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 56014-2020.xlsx", "A 56014-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 56014-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 56014-2020.png", "A 56014-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 56014-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 56014-2020.docx", "A 56014-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 56014-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 56014-2020.docx", "A 56014-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 56014-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 56014-2020.docx", "A 56014-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 56014-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 56014-2020.docx", "A 56014-2020")</f>
         <v/>
       </c>
     </row>
@@ -2906,7 +2914,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2957,27 +2965,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 13973-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 13973-2021.xlsx", "A 13973-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 13973-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 13973-2021.png", "A 13973-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 13973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 13973-2021.docx", "A 13973-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 13973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 13973-2021.docx", "A 13973-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 13973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 13973-2021.docx", "A 13973-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 13973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 13973-2021.docx", "A 13973-2021")</f>
         <v/>
       </c>
     </row>
@@ -2991,7 +2999,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3047,27 +3055,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 7919-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 7919-2022.xlsx", "A 7919-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 7919-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 7919-2022.png", "A 7919-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 7919-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 7919-2022.docx", "A 7919-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 7919-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 7919-2022.docx", "A 7919-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 7919-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 7919-2022.docx", "A 7919-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 7919-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 7919-2022.docx", "A 7919-2022")</f>
         <v/>
       </c>
     </row>
@@ -3081,7 +3089,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3137,27 +3145,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 29985-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 29985-2022.xlsx", "A 29985-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 29985-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 29985-2022.png", "A 29985-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 29985-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 29985-2022.docx", "A 29985-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 29985-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 29985-2022.docx", "A 29985-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 29985-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 29985-2022.docx", "A 29985-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 29985-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 29985-2022.docx", "A 29985-2022")</f>
         <v/>
       </c>
     </row>
@@ -3171,7 +3179,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3227,27 +3235,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 7731-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 7731-2023.xlsx", "A 7731-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 7731-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 7731-2023.png", "A 7731-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 7731-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 7731-2023.docx", "A 7731-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 7731-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 7731-2023.docx", "A 7731-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 7731-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 7731-2023.docx", "A 7731-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 7731-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 7731-2023.docx", "A 7731-2023")</f>
         <v/>
       </c>
     </row>
@@ -3261,7 +3269,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3312,27 +3320,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 23221-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 23221-2023.xlsx", "A 23221-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 23221-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 23221-2023.png", "A 23221-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 23221-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 23221-2023.docx", "A 23221-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 23221-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 23221-2023.docx", "A 23221-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 23221-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 23221-2023.docx", "A 23221-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 23221-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 23221-2023.docx", "A 23221-2023")</f>
         <v/>
       </c>
     </row>
@@ -3346,7 +3354,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3397,27 +3405,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 31535-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/artfynd/A 31535-2023.xlsx", "A 31535-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 31535-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/kartor/A 31535-2023.png", "A 31535-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 31535-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 31535-2023.docx", "A 31535-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 31535-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 31535-2023.docx", "A 31535-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 31535-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 31535-2023.docx", "A 31535-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 31535-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 31535-2023.docx", "A 31535-2023")</f>
         <v/>
       </c>
     </row>
@@ -3431,7 +3439,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3496,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3550,7 +3558,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3607,7 +3615,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3664,7 +3672,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3726,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3791,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3848,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3905,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3962,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4024,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4073,7 +4081,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4130,7 +4138,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4187,7 +4195,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4244,7 +4252,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4301,7 +4309,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4358,7 +4366,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4415,7 +4423,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4472,7 +4480,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4529,7 +4537,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4586,7 +4594,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4643,7 +4651,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4700,7 +4708,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4765,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4814,7 +4822,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4871,7 +4879,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4928,7 +4936,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4985,7 +4993,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5042,7 +5050,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5099,7 +5107,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5156,7 +5164,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5213,7 +5221,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5270,7 +5278,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5327,7 +5335,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5384,7 +5392,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5441,7 +5449,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5498,7 +5506,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5560,7 +5568,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5617,7 +5625,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5679,7 +5687,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5736,7 +5744,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5793,7 +5801,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5850,7 +5858,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5907,7 +5915,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5964,7 +5972,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6021,7 +6029,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6078,7 +6086,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6135,7 +6143,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6192,7 +6200,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6249,7 +6257,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6306,7 +6314,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6363,7 +6371,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6420,7 +6428,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6477,7 +6485,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6534,7 +6542,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6596,7 +6604,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6653,7 +6661,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6710,7 +6718,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6767,7 +6775,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6829,7 +6837,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6891,7 +6899,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6948,7 +6956,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7010,7 +7018,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7067,7 +7075,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7124,7 +7132,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7186,7 +7194,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7248,7 +7256,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7310,7 +7318,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7367,7 +7375,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7424,7 +7432,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7481,7 +7489,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7538,7 +7546,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7595,7 +7603,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7652,7 +7660,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7709,7 +7717,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7766,7 +7774,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7823,7 +7831,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7880,7 +7888,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7937,7 +7945,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7994,7 +8002,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8051,7 +8059,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8108,7 +8116,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8165,7 +8173,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8222,7 +8230,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8284,7 +8292,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8341,7 +8349,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8398,7 +8406,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8455,7 +8463,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8512,7 +8520,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8569,7 +8577,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8626,7 +8634,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8683,7 +8691,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8740,7 +8748,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8797,7 +8805,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8854,7 +8862,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8911,7 +8919,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8968,7 +8976,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9025,7 +9033,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9082,7 +9090,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9139,7 +9147,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9196,7 +9204,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9253,7 +9261,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9310,7 +9318,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9367,7 +9375,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9429,7 +9437,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9491,7 +9499,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9553,7 +9561,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9610,7 +9618,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9667,7 +9675,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9724,7 +9732,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9781,7 +9789,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9838,7 +9846,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9895,7 +9903,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9952,7 +9960,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10009,7 +10017,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10071,7 +10079,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10133,7 +10141,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10190,7 +10198,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10247,7 +10255,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10304,7 +10312,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10361,7 +10369,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10418,7 +10426,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10480,7 +10488,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10542,7 +10550,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10599,7 +10607,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10661,7 +10669,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10718,7 +10726,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10775,7 +10783,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10832,7 +10840,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10889,7 +10897,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10946,7 +10954,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11003,7 +11011,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11060,7 +11068,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11117,7 +11125,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11179,7 +11187,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11236,7 +11244,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11298,7 +11306,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11355,7 +11363,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11412,7 +11420,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11469,7 +11477,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11526,7 +11534,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11583,7 +11591,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11640,7 +11648,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11697,7 +11705,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11754,7 +11762,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11811,7 +11819,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11868,7 +11876,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11925,7 +11933,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11982,7 +11990,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12039,7 +12047,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12096,7 +12104,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12153,7 +12161,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12210,7 +12218,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12267,7 +12275,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12324,7 +12332,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12381,7 +12389,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12438,7 +12446,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12495,7 +12503,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12552,7 +12560,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12609,7 +12617,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12666,7 +12674,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12723,7 +12731,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12780,7 +12788,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12845,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12894,7 +12902,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12951,7 +12959,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13008,7 +13016,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13065,7 +13073,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13127,7 +13135,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13184,7 +13192,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13241,7 +13249,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13298,7 +13306,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13355,7 +13363,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13412,7 +13420,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13469,7 +13477,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13526,7 +13534,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13583,7 +13591,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13640,7 +13648,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13697,7 +13705,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13754,7 +13762,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13811,7 +13819,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13873,7 +13881,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13935,7 +13943,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13997,7 +14005,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14054,7 +14062,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14111,7 +14119,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14173,7 +14181,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14230,7 +14238,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14287,7 +14295,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14344,7 +14352,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14401,7 +14409,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14458,7 +14466,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14515,7 +14523,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14572,7 +14580,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14629,7 +14637,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14686,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14748,7 +14756,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14805,7 +14813,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14862,7 +14870,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14919,7 +14927,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14976,7 +14984,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15033,7 +15041,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15090,7 +15098,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15147,7 +15155,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15204,7 +15212,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15261,7 +15269,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15318,7 +15326,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15380,7 +15388,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15437,7 +15445,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15494,7 +15502,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15551,7 +15559,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15608,7 +15616,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15665,7 +15673,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15722,7 +15730,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15779,7 +15787,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15836,7 +15844,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15893,7 +15901,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15950,7 +15958,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16007,7 +16015,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16064,7 +16072,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16121,7 +16129,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16178,7 +16186,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16225,23 +16233,23 @@
       </c>
       <c r="R255" s="2" t="inlineStr"/>
       <c r="U255">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 1599-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 1599-2021.png", "A 1599-2021")</f>
         <v/>
       </c>
       <c r="V255">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 1599-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 1599-2021.docx", "A 1599-2021")</f>
         <v/>
       </c>
       <c r="W255">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 1599-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 1599-2021.docx", "A 1599-2021")</f>
         <v/>
       </c>
       <c r="X255">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 1599-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 1599-2021.docx", "A 1599-2021")</f>
         <v/>
       </c>
       <c r="Y255">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 1599-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 1599-2021.docx", "A 1599-2021")</f>
         <v/>
       </c>
     </row>
@@ -16255,7 +16263,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16317,7 +16325,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16374,7 +16382,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16431,7 +16439,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16488,7 +16496,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16550,7 +16558,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16607,7 +16615,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16664,7 +16672,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16721,7 +16729,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16778,7 +16786,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16835,7 +16843,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16897,7 +16905,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16959,7 +16967,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17016,7 +17024,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17073,7 +17081,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17130,7 +17138,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17192,7 +17200,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17249,7 +17257,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17306,7 +17314,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17363,7 +17371,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17425,7 +17433,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17482,7 +17490,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17544,7 +17552,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17601,7 +17609,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17658,7 +17666,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17715,7 +17723,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17772,7 +17780,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17829,7 +17837,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17886,7 +17894,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17943,7 +17951,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18000,7 +18008,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18057,7 +18065,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18114,7 +18122,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18171,7 +18179,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18228,7 +18236,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18285,7 +18293,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18342,7 +18350,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18399,7 +18407,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18456,7 +18464,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18513,7 +18521,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18575,7 +18583,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18637,7 +18645,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18699,7 +18707,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18756,7 +18764,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18818,7 +18826,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18875,7 +18883,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18932,7 +18940,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18989,7 +18997,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19046,7 +19054,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19103,7 +19111,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19160,7 +19168,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19217,7 +19225,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19274,7 +19282,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19336,7 +19344,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19406,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19463,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19520,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19574,7 +19582,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19631,7 +19639,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19688,7 +19696,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19745,7 +19753,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19802,7 +19810,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19859,7 +19867,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19916,7 +19924,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19973,7 +19981,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20030,7 +20038,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20087,7 +20095,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20144,7 +20152,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20201,7 +20209,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20258,7 +20266,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20320,7 +20328,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20382,7 +20390,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20439,7 +20447,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20496,7 +20504,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20553,7 +20561,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20610,7 +20618,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20672,7 +20680,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20729,7 +20737,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20786,7 +20794,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20843,7 +20851,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20900,7 +20908,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20957,7 +20965,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21014,7 +21022,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21071,7 +21079,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21128,7 +21136,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21185,7 +21193,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21242,7 +21250,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21299,7 +21307,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21356,7 +21364,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21413,7 +21421,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21470,7 +21478,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21527,7 +21535,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21584,7 +21592,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,23 +21639,23 @@
       </c>
       <c r="R348" s="2" t="inlineStr"/>
       <c r="U348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 67037-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/knärot/A 67037-2021.png", "A 67037-2021")</f>
         <v/>
       </c>
       <c r="V348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 67037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomål/A 67037-2021.docx", "A 67037-2021")</f>
         <v/>
       </c>
       <c r="W348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 67037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/klagomålsmail/A 67037-2021.docx", "A 67037-2021")</f>
         <v/>
       </c>
       <c r="X348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 67037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsyn/A 67037-2021.docx", "A 67037-2021")</f>
         <v/>
       </c>
       <c r="Y348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 67037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SALA/tillsynsmail/A 67037-2021.docx", "A 67037-2021")</f>
         <v/>
       </c>
     </row>
@@ -21661,7 +21669,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21718,7 +21726,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21775,7 +21783,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21832,7 +21840,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21889,7 +21897,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21946,7 +21954,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22003,7 +22011,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22060,7 +22068,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22117,7 +22125,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22174,7 +22182,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22231,7 +22239,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22288,7 +22296,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22345,7 +22353,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22402,7 +22410,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22459,7 +22467,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22516,7 +22524,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22573,7 +22581,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22630,7 +22638,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22687,7 +22695,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22744,7 +22752,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22801,7 +22809,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22858,7 +22866,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22915,7 +22923,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22972,7 +22980,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23029,7 +23037,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23086,7 +23094,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23143,7 +23151,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23200,7 +23208,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23257,7 +23265,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23314,7 +23322,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23371,7 +23379,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23428,7 +23436,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23485,7 +23493,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23542,7 +23550,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23599,7 +23607,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23656,7 +23664,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23713,7 +23721,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23770,7 +23778,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23827,7 +23835,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23884,7 +23892,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23941,7 +23949,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23998,7 +24006,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24055,7 +24063,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24112,7 +24120,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24169,7 +24177,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24226,7 +24234,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24283,7 +24291,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24340,7 +24348,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24397,7 +24405,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24454,7 +24462,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24511,7 +24519,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24568,7 +24576,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24625,7 +24633,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24682,7 +24690,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24739,7 +24747,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24796,7 +24804,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24853,7 +24861,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24910,7 +24918,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24967,7 +24975,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25024,7 +25032,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25081,7 +25089,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25138,7 +25146,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25195,7 +25203,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25252,7 +25260,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25309,7 +25317,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25371,7 +25379,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25428,7 +25436,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25485,7 +25493,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25547,7 +25555,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25604,7 +25612,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25661,7 +25669,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25723,7 +25731,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25780,7 +25788,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25837,7 +25845,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25894,7 +25902,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25951,7 +25959,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26008,7 +26016,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26065,7 +26073,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26122,7 +26130,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26179,7 +26187,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26236,7 +26244,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26293,7 +26301,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26350,7 +26358,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26412,7 +26420,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26469,7 +26477,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26526,7 +26534,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26583,7 +26591,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26640,7 +26648,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26697,7 +26705,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26754,7 +26762,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26811,7 +26819,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26868,7 +26876,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26925,7 +26933,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26982,7 +26990,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27039,7 +27047,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27096,7 +27104,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27153,7 +27161,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27210,7 +27218,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27267,7 +27275,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27329,7 +27337,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27386,7 +27394,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27443,7 +27451,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27505,7 +27513,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27562,7 +27570,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27619,7 +27627,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27676,7 +27684,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27733,7 +27741,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27798,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27855,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27904,7 +27912,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27966,7 +27974,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28028,7 +28036,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28098,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28147,7 +28155,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28217,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28279,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28328,7 +28336,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28385,7 +28393,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28447,7 +28455,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28504,7 +28512,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28561,7 +28569,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28618,7 +28626,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28675,7 +28683,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28732,7 +28740,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28789,7 +28797,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28846,7 +28854,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28903,7 +28911,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28960,7 +28968,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29017,7 +29025,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29074,7 +29082,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29131,7 +29139,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29188,7 +29196,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29245,7 +29253,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29302,7 +29310,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29359,7 +29367,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29416,7 +29424,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29473,7 +29481,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29530,7 +29538,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29587,7 +29595,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29649,7 +29657,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29706,7 +29714,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29763,7 +29771,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29820,7 +29828,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29877,7 +29885,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29934,7 +29942,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29991,7 +29999,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30048,7 +30056,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30105,7 +30113,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30167,7 +30175,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30224,7 +30232,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30281,7 +30289,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30338,7 +30346,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30395,7 +30403,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30452,7 +30460,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30509,7 +30517,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30566,7 +30574,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30623,7 +30631,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30680,7 +30688,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30737,7 +30745,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30794,7 +30802,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30851,7 +30859,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30908,7 +30916,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30965,7 +30973,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31022,7 +31030,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31079,7 +31087,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31136,7 +31144,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31193,7 +31201,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31255,7 +31263,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31312,7 +31320,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31369,7 +31377,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31426,7 +31434,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31483,7 +31491,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31540,7 +31548,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31597,7 +31605,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31659,7 +31667,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31721,7 +31729,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31783,7 +31791,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31845,7 +31853,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31907,7 +31915,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31964,7 +31972,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32021,7 +32029,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32078,7 +32086,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32135,7 +32143,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32192,7 +32200,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32254,7 +32262,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32311,7 +32319,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32373,7 +32381,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32430,7 +32438,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32487,7 +32495,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32544,7 +32552,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32601,7 +32609,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32658,7 +32666,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32715,7 +32723,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32772,7 +32780,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32829,7 +32837,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32891,7 +32899,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32948,7 +32956,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33005,7 +33013,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33062,7 +33070,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33119,7 +33127,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33176,7 +33184,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33233,7 +33241,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33290,7 +33298,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33347,7 +33355,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33404,7 +33412,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33466,7 +33474,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33523,7 +33531,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33585,7 +33593,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33647,7 +33655,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33709,7 +33717,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33766,7 +33774,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33823,7 +33831,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33880,7 +33888,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33942,7 +33950,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33999,7 +34007,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34056,7 +34064,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34118,7 +34126,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34180,7 +34188,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34237,7 +34245,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34299,7 +34307,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34361,7 +34369,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34418,7 +34426,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34480,7 +34488,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34537,7 +34545,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34599,7 +34607,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34656,7 +34664,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34713,7 +34721,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34770,7 +34778,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34827,7 +34835,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34884,7 +34892,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34941,7 +34949,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34998,7 +35006,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35055,7 +35063,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35112,7 +35120,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35169,7 +35177,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35231,7 +35239,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35293,7 +35301,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35350,7 +35358,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35407,7 +35415,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35464,7 +35472,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35521,7 +35529,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35578,7 +35586,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35635,7 +35643,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35692,7 +35700,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35749,7 +35757,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35806,7 +35814,7 @@
         <v>45183</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35863,7 +35871,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45159</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25146,7 +25146,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29253,7 +29253,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29714,7 +29714,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29771,7 +29771,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29828,7 +29828,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29999,7 +29999,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30631,7 +30631,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30802,7 +30802,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30859,7 +30859,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30916,7 +30916,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30973,7 +30973,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31201,7 +31201,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31263,7 +31263,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31320,7 +31320,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31434,7 +31434,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31491,7 +31491,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31548,7 +31548,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31605,7 +31605,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34369,7 +34369,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34488,7 +34488,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34545,7 +34545,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35063,7 +35063,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35177,7 +35177,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>45183</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45159</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25146,7 +25146,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29253,7 +29253,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29714,7 +29714,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29771,7 +29771,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29828,7 +29828,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29999,7 +29999,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30631,7 +30631,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30802,7 +30802,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30859,7 +30859,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30916,7 +30916,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30973,7 +30973,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31201,7 +31201,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31263,7 +31263,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31320,7 +31320,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31434,7 +31434,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31491,7 +31491,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31548,7 +31548,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31605,7 +31605,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34369,7 +34369,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34488,7 +34488,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34545,7 +34545,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35063,7 +35063,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35177,7 +35177,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>45183</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45159</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25146,7 +25146,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29253,7 +29253,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29714,7 +29714,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29771,7 +29771,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29828,7 +29828,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29999,7 +29999,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30631,7 +30631,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30802,7 +30802,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30859,7 +30859,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30916,7 +30916,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30973,7 +30973,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31201,7 +31201,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31263,7 +31263,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31320,7 +31320,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31434,7 +31434,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31491,7 +31491,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31548,7 +31548,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31605,7 +31605,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34369,7 +34369,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34488,7 +34488,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34545,7 +34545,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35063,7 +35063,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35177,7 +35177,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>45183</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y595"/>
+  <dimension ref="A1:Y596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45159</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25146,7 +25146,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29253,7 +29253,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29714,7 +29714,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29771,7 +29771,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29828,7 +29828,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29999,7 +29999,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30631,7 +30631,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30802,7 +30802,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30859,7 +30859,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30916,7 +30916,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30973,7 +30973,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31201,7 +31201,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31263,7 +31263,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31320,7 +31320,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31434,7 +31434,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31491,7 +31491,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31548,7 +31548,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31605,7 +31605,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34369,7 +34369,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34488,7 +34488,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34545,7 +34545,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35063,7 +35063,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35177,7 +35177,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>45183</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
       </c>
       <c r="R594" s="2" t="inlineStr"/>
     </row>
-    <row r="595">
+    <row r="595" ht="15" customHeight="1">
       <c r="A595" t="inlineStr">
         <is>
           <t>A 43188-2023</t>
@@ -35871,7 +35871,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35917,6 +35917,63 @@
         <v>0</v>
       </c>
       <c r="R595" s="2" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>A 44846-2023</t>
+        </is>
+      </c>
+      <c r="B596" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C596" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>SALA</t>
+        </is>
+      </c>
+      <c r="G596" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N596" t="n">
+        <v>0</v>
+      </c>
+      <c r="O596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R596" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>28.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -623,11 +623,14 @@
 Laxporing
 Rynkskinn
 Tallbarksvartbagge
+Ulltickeporing
 Vågticka
 Gransotdyna
+Gränsticka
 Mindre hackspett
 Motaggsvamp
 Spillkråka
+Svartvit taggsvamp
 Såpfingersvamp
 Tallticka
 Talltita
@@ -639,8 +642,11 @@
 Mindre märgborre
 Skarp dropptaggsvamp
 Thomsons trägnagare
+Thymalus limbatus
 Vanlig flatbagge
-Vedticka</t>
+Vedticka
+Vågbandad barkbock
+Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S2">
@@ -682,7 +688,7 @@
         <v>45159</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +791,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +885,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +978,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1071,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1164,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1252,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1333,7 +1339,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1430,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1515,7 +1521,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1611,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1702,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1782,7 +1788,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1874,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1960,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2046,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2126,7 +2132,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2217,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2307,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2390,7 +2396,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2475,7 +2481,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2564,7 +2570,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2660,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2750,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2829,7 +2835,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2914,7 +2920,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2999,7 +3005,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3089,7 +3095,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3179,7 +3185,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3269,7 +3275,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3354,7 +3360,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3439,7 +3445,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3496,7 +3502,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3558,7 +3564,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3615,7 +3621,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3672,7 +3678,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3734,7 +3740,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3797,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3848,7 +3854,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3905,7 +3911,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3962,7 +3968,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4024,7 +4030,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4081,7 +4087,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4138,7 +4144,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4195,7 +4201,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4252,7 +4258,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4309,7 +4315,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4366,7 +4372,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4423,7 +4429,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4480,7 +4486,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4537,7 +4543,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4594,7 +4600,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4651,7 +4657,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4708,7 +4714,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4765,7 +4771,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4822,7 +4828,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4879,7 +4885,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4936,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4993,7 +4999,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5050,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5107,7 +5113,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5164,7 +5170,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5221,7 +5227,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5278,7 +5284,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5335,7 +5341,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5392,7 +5398,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5449,7 +5455,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5506,7 +5512,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5568,7 +5574,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5625,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5687,7 +5693,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5744,7 +5750,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5801,7 +5807,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5858,7 +5864,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5915,7 +5921,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5972,7 +5978,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6029,7 +6035,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6086,7 +6092,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6143,7 +6149,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6200,7 +6206,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6257,7 +6263,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6314,7 +6320,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6371,7 +6377,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6428,7 +6434,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6485,7 +6491,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6542,7 +6548,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6604,7 +6610,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6661,7 +6667,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6718,7 +6724,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6775,7 +6781,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6837,7 +6843,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6899,7 +6905,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6956,7 +6962,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7018,7 +7024,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7075,7 +7081,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7132,7 +7138,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7194,7 +7200,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7256,7 +7262,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7318,7 +7324,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7375,7 +7381,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7432,7 +7438,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7489,7 +7495,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7546,7 +7552,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7603,7 +7609,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7660,7 +7666,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7717,7 +7723,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7774,7 +7780,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7831,7 +7837,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7888,7 +7894,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7945,7 +7951,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8002,7 +8008,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8059,7 +8065,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8116,7 +8122,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8173,7 +8179,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8230,7 +8236,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8292,7 +8298,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8349,7 +8355,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8406,7 +8412,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8463,7 +8469,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8520,7 +8526,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8577,7 +8583,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8634,7 +8640,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8691,7 +8697,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8748,7 +8754,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8805,7 +8811,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8862,7 +8868,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8919,7 +8925,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8976,7 +8982,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9033,7 +9039,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9090,7 +9096,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9147,7 +9153,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9204,7 +9210,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9261,7 +9267,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9318,7 +9324,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9375,7 +9381,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9437,7 +9443,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9499,7 +9505,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9561,7 +9567,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9618,7 +9624,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9675,7 +9681,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9732,7 +9738,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9789,7 +9795,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9846,7 +9852,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9903,7 +9909,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9960,7 +9966,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10017,7 +10023,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10079,7 +10085,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10141,7 +10147,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10198,7 +10204,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10255,7 +10261,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10312,7 +10318,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10369,7 +10375,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10426,7 +10432,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10488,7 +10494,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10550,7 +10556,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10607,7 +10613,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10669,7 +10675,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10726,7 +10732,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10783,7 +10789,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10840,7 +10846,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10897,7 +10903,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10954,7 +10960,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11011,7 +11017,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11068,7 +11074,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11125,7 +11131,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11187,7 +11193,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11244,7 +11250,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11306,7 +11312,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11363,7 +11369,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11420,7 +11426,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11477,7 +11483,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11534,7 +11540,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11591,7 +11597,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11648,7 +11654,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11705,7 +11711,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11762,7 +11768,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11819,7 +11825,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11876,7 +11882,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11933,7 +11939,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11990,7 +11996,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12053,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12110,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12167,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12224,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12281,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12338,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12395,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12452,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12509,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12560,7 +12566,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12617,7 +12623,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12674,7 +12680,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12731,7 +12737,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12788,7 +12794,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12845,7 +12851,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12902,7 +12908,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12959,7 +12965,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13016,7 +13022,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13073,7 +13079,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13141,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13198,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13255,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13312,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13369,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13426,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13483,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13540,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13591,7 +13597,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13648,7 +13654,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13705,7 +13711,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13762,7 +13768,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13819,7 +13825,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13881,7 +13887,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13943,7 +13949,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14005,7 +14011,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14062,7 +14068,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14119,7 +14125,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14181,7 +14187,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14238,7 +14244,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14295,7 +14301,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14352,7 +14358,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14409,7 +14415,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14466,7 +14472,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14523,7 +14529,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14580,7 +14586,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14637,7 +14643,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14694,7 +14700,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14756,7 +14762,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14813,7 +14819,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14870,7 +14876,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14927,7 +14933,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14984,7 +14990,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15041,7 +15047,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15098,7 +15104,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15155,7 +15161,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15212,7 +15218,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15269,7 +15275,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15326,7 +15332,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15388,7 +15394,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15445,7 +15451,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15502,7 +15508,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15559,7 +15565,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15616,7 +15622,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15673,7 +15679,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15730,7 +15736,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15787,7 +15793,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15844,7 +15850,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15901,7 +15907,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15958,7 +15964,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16015,7 +16021,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16072,7 +16078,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16129,7 +16135,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16186,7 +16192,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16263,7 +16269,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16325,7 +16331,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16382,7 +16388,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16439,7 +16445,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16496,7 +16502,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16558,7 +16564,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16615,7 +16621,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16672,7 +16678,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16729,7 +16735,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16786,7 +16792,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16843,7 +16849,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16905,7 +16911,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16967,7 +16973,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17024,7 +17030,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17081,7 +17087,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17138,7 +17144,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17200,7 +17206,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17257,7 +17263,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17314,7 +17320,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17371,7 +17377,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17433,7 +17439,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17490,7 +17496,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17552,7 +17558,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17609,7 +17615,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17666,7 +17672,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17723,7 +17729,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17780,7 +17786,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17837,7 +17843,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17894,7 +17900,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17951,7 +17957,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18008,7 +18014,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18065,7 +18071,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18122,7 +18128,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18179,7 +18185,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18236,7 +18242,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18293,7 +18299,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18350,7 +18356,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18407,7 +18413,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18464,7 +18470,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18521,7 +18527,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18583,7 +18589,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18645,7 +18651,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18707,7 +18713,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18764,7 +18770,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18826,7 +18832,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18883,7 +18889,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18940,7 +18946,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18997,7 +19003,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19054,7 +19060,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19111,7 +19117,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19168,7 +19174,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19225,7 +19231,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19282,7 +19288,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19344,7 +19350,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19406,7 +19412,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19463,7 +19469,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19520,7 +19526,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19582,7 +19588,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19639,7 +19645,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19696,7 +19702,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19753,7 +19759,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19810,7 +19816,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19867,7 +19873,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19924,7 +19930,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19981,7 +19987,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20038,7 +20044,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20095,7 +20101,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20152,7 +20158,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20209,7 +20215,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20266,7 +20272,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20328,7 +20334,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20390,7 +20396,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20447,7 +20453,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20504,7 +20510,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20561,7 +20567,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20618,7 +20624,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20680,7 +20686,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20737,7 +20743,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20794,7 +20800,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20851,7 +20857,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20908,7 +20914,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20965,7 +20971,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21022,7 +21028,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21079,7 +21085,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21136,7 +21142,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21193,7 +21199,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21250,7 +21256,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21307,7 +21313,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21364,7 +21370,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21421,7 +21427,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21478,7 +21484,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21535,7 +21541,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21592,7 +21598,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21669,7 +21675,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21726,7 +21732,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21783,7 +21789,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21840,7 +21846,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21897,7 +21903,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21954,7 +21960,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22011,7 +22017,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22068,7 +22074,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22125,7 +22131,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22182,7 +22188,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22239,7 +22245,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22296,7 +22302,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22353,7 +22359,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22410,7 +22416,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22467,7 +22473,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22524,7 +22530,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22581,7 +22587,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22638,7 +22644,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22695,7 +22701,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22752,7 +22758,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22809,7 +22815,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22866,7 +22872,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22923,7 +22929,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22980,7 +22986,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23037,7 +23043,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23094,7 +23100,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23151,7 +23157,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23208,7 +23214,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23265,7 +23271,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23322,7 +23328,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23379,7 +23385,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23436,7 +23442,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23493,7 +23499,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23550,7 +23556,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23607,7 +23613,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23664,7 +23670,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23721,7 +23727,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23778,7 +23784,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23835,7 +23841,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23892,7 +23898,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23949,7 +23955,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24006,7 +24012,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24063,7 +24069,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24120,7 +24126,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24177,7 +24183,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24234,7 +24240,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24291,7 +24297,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24348,7 +24354,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24405,7 +24411,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24462,7 +24468,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24519,7 +24525,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24576,7 +24582,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24633,7 +24639,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24690,7 +24696,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24747,7 +24753,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24804,7 +24810,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24861,7 +24867,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24918,7 +24924,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24975,7 +24981,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25032,7 +25038,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25089,7 +25095,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25146,7 +25152,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25203,7 +25209,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25260,7 +25266,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25323,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25385,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25436,7 +25442,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25493,7 +25499,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25555,7 +25561,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25612,7 +25618,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25669,7 +25675,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25731,7 +25737,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25788,7 +25794,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25845,7 +25851,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25902,7 +25908,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25959,7 +25965,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26016,7 +26022,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26073,7 +26079,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26130,7 +26136,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26187,7 +26193,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26244,7 +26250,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26301,7 +26307,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26358,7 +26364,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26420,7 +26426,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26477,7 +26483,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26534,7 +26540,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26591,7 +26597,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26648,7 +26654,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26705,7 +26711,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26762,7 +26768,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26819,7 +26825,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26876,7 +26882,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26933,7 +26939,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26990,7 +26996,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27047,7 +27053,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27104,7 +27110,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27161,7 +27167,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27218,7 +27224,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27275,7 +27281,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27337,7 +27343,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27394,7 +27400,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27451,7 +27457,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27513,7 +27519,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27570,7 +27576,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27627,7 +27633,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27684,7 +27690,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27741,7 +27747,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27798,7 +27804,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27855,7 +27861,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27912,7 +27918,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27974,7 +27980,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28036,7 +28042,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28098,7 +28104,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28155,7 +28161,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28217,7 +28223,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28279,7 +28285,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28336,7 +28342,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28393,7 +28399,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28455,7 +28461,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28512,7 +28518,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28569,7 +28575,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28626,7 +28632,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28683,7 +28689,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28740,7 +28746,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28797,7 +28803,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28854,7 +28860,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28911,7 +28917,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28968,7 +28974,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29025,7 +29031,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29082,7 +29088,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29139,7 +29145,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29196,7 +29202,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29253,7 +29259,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29310,7 +29316,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29367,7 +29373,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29424,7 +29430,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29481,7 +29487,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29538,7 +29544,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29595,7 +29601,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29657,7 +29663,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29714,7 +29720,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29771,7 +29777,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29828,7 +29834,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29885,7 +29891,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29942,7 +29948,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29999,7 +30005,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30056,7 +30062,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30113,7 +30119,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30175,7 +30181,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30232,7 +30238,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30289,7 +30295,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30346,7 +30352,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30403,7 +30409,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30460,7 +30466,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30517,7 +30523,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30574,7 +30580,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30631,7 +30637,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30688,7 +30694,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30745,7 +30751,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30802,7 +30808,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30859,7 +30865,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30916,7 +30922,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30973,7 +30979,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31030,7 +31036,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31087,7 +31093,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31144,7 +31150,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31201,7 +31207,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31263,7 +31269,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31320,7 +31326,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31377,7 +31383,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31434,7 +31440,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31491,7 +31497,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31548,7 +31554,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31605,7 +31611,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31667,7 +31673,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31729,7 +31735,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31791,7 +31797,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31853,7 +31859,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31915,7 +31921,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31972,7 +31978,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32029,7 +32035,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32086,7 +32092,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32143,7 +32149,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32200,7 +32206,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32262,7 +32268,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32319,7 +32325,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32381,7 +32387,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32438,7 +32444,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32495,7 +32501,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32552,7 +32558,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32609,7 +32615,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32666,7 +32672,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32723,7 +32729,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32780,7 +32786,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32837,7 +32843,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32899,7 +32905,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32956,7 +32962,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33013,7 +33019,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33070,7 +33076,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33127,7 +33133,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33184,7 +33190,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33241,7 +33247,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33298,7 +33304,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33355,7 +33361,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33412,7 +33418,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33474,7 +33480,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33531,7 +33537,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33593,7 +33599,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33655,7 +33661,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33717,7 +33723,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33774,7 +33780,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33831,7 +33837,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33888,7 +33894,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33950,7 +33956,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34007,7 +34013,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34064,7 +34070,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34126,7 +34132,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34188,7 +34194,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34245,7 +34251,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34307,7 +34313,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34369,7 +34375,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34426,7 +34432,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34488,7 +34494,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34545,7 +34551,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34607,7 +34613,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34664,7 +34670,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34721,7 +34727,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34778,7 +34784,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34835,7 +34841,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34892,7 +34898,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34949,7 +34955,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35006,7 +35012,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35063,7 +35069,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35120,7 +35126,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35177,7 +35183,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35239,7 +35245,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35301,7 +35307,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35358,7 +35364,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35415,7 +35421,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35472,7 +35478,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35529,7 +35535,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35586,7 +35592,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35643,7 +35649,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35700,7 +35706,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35757,7 +35763,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35814,7 +35820,7 @@
         <v>45183</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35871,7 +35877,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35928,7 +35934,7 @@
         <v>45190</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45159</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33247,7 +33247,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33304,7 +33304,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34494,7 +34494,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34551,7 +34551,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35592,7 +35592,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35763,7 +35763,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45183</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>45190</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y596"/>
+  <dimension ref="A1:Y597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45159</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33247,7 +33247,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33304,7 +33304,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34494,7 +34494,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34551,7 +34551,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35592,7 +35592,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35763,7 +35763,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45183</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
       </c>
       <c r="R595" s="2" t="inlineStr"/>
     </row>
-    <row r="596">
+    <row r="596" ht="15" customHeight="1">
       <c r="A596" t="inlineStr">
         <is>
           <t>A 44846-2023</t>
@@ -35934,7 +35934,7 @@
         <v>45190</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35980,6 +35980,63 @@
         <v>0</v>
       </c>
       <c r="R596" s="2" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>A 47501-2023</t>
+        </is>
+      </c>
+      <c r="B597" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C597" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>SALA</t>
+        </is>
+      </c>
+      <c r="G597" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0</v>
+      </c>
+      <c r="J597" t="n">
+        <v>0</v>
+      </c>
+      <c r="K597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N597" t="n">
+        <v>0</v>
+      </c>
+      <c r="O597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R597" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45159</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44404</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44127</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>44349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>45097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43807</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43410</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>45097</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>43529</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44020</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44067</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44067</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44132</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44277</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>44756</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44973</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>45075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45116</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43362</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>43439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>43446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43451</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43488</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43488</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43493</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>43496</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43503</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43504</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43538</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43548</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43558</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43562</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43584</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43613</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43635</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43639</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43664</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>43679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>43686</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>43691</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43728</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43739</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43752</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43769</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43773</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43774</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43794</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43794</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43822</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43832</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43833</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43833</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43837</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43843</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43847</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43853</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43865</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43882</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43885</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43900</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43903</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43906</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43908</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43922</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43922</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>43923</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43923</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43936</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43936</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43957</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43959</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43976</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43985</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43987</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43990</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44018</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44032</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44032</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44054</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44054</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44067</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44076</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44076</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44076</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44081</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44088</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>44110</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>44111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>44111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>44127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44130</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44132</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>44141</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44146</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44156</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44158</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44172</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44191</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44191</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44191</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44193</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44193</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44193</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44232</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>44242</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44243</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44260</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44260</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44264</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44272</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44284</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44285</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44285</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44301</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44305</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>44305</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44305</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44308</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44321</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44323</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>44323</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>44323</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>44334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44340</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44340</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44348</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44348</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44348</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44348</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44363</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44368</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44368</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44369</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44378</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44383</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44384</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44384</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44384</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44384</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>44400</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44403</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44403</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44403</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44410</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44414</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>44419</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44421</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44424</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>44432</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44433</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44448</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44448</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44460</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44473</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>44483</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44483</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44487</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44487</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>44488</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44495</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44502</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44502</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>44504</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>44504</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44504</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>44505</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>44505</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44512</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>44512</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>44515</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>44515</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>44515</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>44515</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44515</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44517</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44517</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44525</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44528</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44529</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44545</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44546</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44546</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44546</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44546</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44547</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44550</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44550</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44551</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>44551</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44552</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>44552</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44552</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44567</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44571</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44572</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44575</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>44575</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44582</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44582</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44582</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44586</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44587</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44587</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44588</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>44599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>44602</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44602</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44602</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44604</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44620</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44623</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44624</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44624</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44637</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44650</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44664</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44664</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44671</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44673</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44676</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>44676</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44694</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44699</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44713</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44713</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44713</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44715</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44727</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44729</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44732</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44732</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44746</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44747</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>44749</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44749</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>44750</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44750</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44750</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>44750</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44756</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44756</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>44760</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44768</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44774</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44774</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>44791</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44795</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44818</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44819</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44819</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>44819</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>44831</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>44831</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>44831</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>44837</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>44844</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44845</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>44847</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>44852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>44855</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44858</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44860</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44861</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44861</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44861</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44866</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44866</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44871</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44879</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>44889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44890</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44894</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44910</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44912</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44914</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44917</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44918</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44937</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44937</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44939</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44943</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44943</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44957</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44957</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44957</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44964</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44964</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44964</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>44965</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44970</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44970</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>44970</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>44971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44971</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44972</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44979</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44992</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44995</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44995</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44995</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44995</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44995</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>45002</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45002</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>45005</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>45007</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>45007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>45008</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>45013</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>45014</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>45014</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45014</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>45020</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>45024</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>45027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45027</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>45028</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>45029</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45029</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45029</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         <v>45029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>45029</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>45033</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>45034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>45034</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>45040</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>45040</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45042</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45044</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>45055</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45056</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>45058</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45065</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>45069</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45069</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45069</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45070</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45072</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45072</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45072</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45075</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33247,7 +33247,7 @@
         <v>45075</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33304,7 +33304,7 @@
         <v>45075</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>45077</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         <v>45079</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45082</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>45083</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45083</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45083</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45084</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45084</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>45085</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>45086</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45086</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45092</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45092</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>45092</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45092</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>45092</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45093</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>45094</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34494,7 +34494,7 @@
         <v>45095</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34551,7 +34551,7 @@
         <v>45096</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45097</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45107</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45107</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45107</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45107</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45114</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45118</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>45125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>45126</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>45126</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>45127</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>45131</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>45131</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45138</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45141</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35592,7 +35592,7 @@
         <v>45152</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>45161</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>45162</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35763,7 +35763,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45183</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>45190</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45202</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
